--- a/data/outputs/management/17.xlsx
+++ b/data/outputs/management/17.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ64"/>
+  <dimension ref="A1:BR64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -911,6 +916,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1118,6 +1124,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1321,6 +1328,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1528,6 +1536,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1735,6 +1744,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1934,6 +1944,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2141,6 +2152,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2348,6 +2360,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>4511658</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2555,6 +2572,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2762,6 +2780,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2961,6 +2980,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3164,6 +3184,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3367,6 +3388,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3578,6 +3600,11 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>4492628</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3785,6 +3812,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3988,6 +4016,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4187,6 +4216,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4394,6 +4424,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4601,6 +4632,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4816,6 +4848,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5019,6 +5052,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5222,6 +5256,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5421,6 +5456,11 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>4483257</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5624,6 +5664,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5831,6 +5872,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6038,6 +6080,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6241,6 +6284,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6444,6 +6488,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6639,6 +6684,11 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>4588812</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6846,6 +6896,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7053,6 +7104,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7256,6 +7308,11 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>4865590</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7455,6 +7512,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7662,6 +7720,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7873,6 +7932,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8088,6 +8148,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8291,6 +8352,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8498,6 +8560,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8701,6 +8764,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8920,6 +8984,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>3851023</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9123,6 +9192,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9330,6 +9400,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9533,6 +9604,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9732,6 +9804,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9943,6 +10016,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10142,6 +10216,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10341,6 +10416,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10540,6 +10616,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10739,6 +10816,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10946,6 +11024,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11145,6 +11224,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11352,6 +11432,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11551,6 +11632,11 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr">
+        <is>
+          <t>3437421</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11766,6 +11852,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11965,6 +12052,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12172,6 +12260,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12375,6 +12464,11 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr">
+        <is>
+          <t>4512155</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12574,6 +12668,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12781,6 +12876,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12980,6 +13076,11 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr">
+        <is>
+          <t>2977106</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13179,6 +13280,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13382,6 +13484,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13581,6 +13684,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
